--- a/Grade 2019/Class Test/CT_Summary_ZW_2019.xlsx
+++ b/Grade 2019/Class Test/CT_Summary_ZW_2019.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7270" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="8250" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="CC1" sheetId="2" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="CC3" sheetId="4" r:id="rId3"/>
     <sheet name="NIIT1" sheetId="5" r:id="rId4"/>
     <sheet name="NIIT2" sheetId="6" r:id="rId5"/>
+    <sheet name="Retake_Java" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CC1!$A$2:$J$44</definedName>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="438">
   <si>
     <t>Student Details</t>
   </si>
@@ -1249,6 +1250,96 @@
   </si>
   <si>
     <t>王金浩</t>
+  </si>
+  <si>
+    <t>Zhongwei- Retake</t>
+  </si>
+  <si>
+    <t>宋晓强</t>
+  </si>
+  <si>
+    <t>Athy</t>
+  </si>
+  <si>
+    <t>康金虎</t>
+  </si>
+  <si>
+    <t>马嘉龙</t>
+  </si>
+  <si>
+    <t>Dan</t>
+  </si>
+  <si>
+    <t>王鹏</t>
+  </si>
+  <si>
+    <t>Spike</t>
+  </si>
+  <si>
+    <t>杨昊</t>
+  </si>
+  <si>
+    <t>牛涛</t>
+  </si>
+  <si>
+    <t>张爱国</t>
+  </si>
+  <si>
+    <t>George</t>
+  </si>
+  <si>
+    <t>张一博</t>
+  </si>
+  <si>
+    <t>胡雄川</t>
+  </si>
+  <si>
+    <t>秦轲</t>
+  </si>
+  <si>
+    <t>Candy Boy</t>
+  </si>
+  <si>
+    <t>姬委</t>
+  </si>
+  <si>
+    <t>Jameson</t>
+  </si>
+  <si>
+    <t>于静龙</t>
+  </si>
+  <si>
+    <t>Young</t>
+  </si>
+  <si>
+    <t>高万富</t>
+  </si>
+  <si>
+    <t>杨彦曦</t>
+  </si>
+  <si>
+    <t>王维文</t>
+  </si>
+  <si>
+    <t>Walker</t>
+  </si>
+  <si>
+    <t>唐俊杰</t>
+  </si>
+  <si>
+    <t>Wilson</t>
+  </si>
+  <si>
+    <t>赵欣</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>王宜轩</t>
+  </si>
+  <si>
+    <t>Enzo</t>
   </si>
 </sst>
 </file>
@@ -1256,13 +1347,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1294,12 +1385,10 @@
       <scheme val="major"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
       <charset val="134"/>
-      <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1308,70 +1397,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1391,6 +1419,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -1398,9 +1434,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1416,14 +1512,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1437,23 +1533,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1465,7 +1547,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1492,19 +1574,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1522,19 +1598,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1552,6 +1622,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1564,13 +1676,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1582,19 +1688,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1606,91 +1736,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1775,17 +1821,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1801,17 +1836,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1826,6 +1857,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1851,166 +1897,162 @@
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2044,31 +2086,32 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="16" fontId="3" fillId="4" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="4" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="4" fillId="6" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="7" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="8" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="7" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2127,6 +2170,74 @@
     <cellStyle name="常规 4" xfId="51"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00D8D8D8"/>
+      <rgbColor rgb="00AAAAAA"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00E5B8B7"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FABF8F"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2404,1103 +2515,1103 @@
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="22.5545454545455" customWidth="1"/>
     <col min="3" max="3" width="16.7818181818182" customWidth="1"/>
-    <col min="4" max="4" width="21.5545454545455" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5545454545455" style="15" customWidth="1"/>
     <col min="5" max="5" width="25.1090909090909" customWidth="1"/>
     <col min="6" max="6" width="13.2181818181818" customWidth="1"/>
-    <col min="7" max="9" width="13.6636363636364" style="2" customWidth="1"/>
-    <col min="10" max="10" width="22.5545454545455" style="2" customWidth="1"/>
+    <col min="7" max="9" width="13.6636363636364" style="16" customWidth="1"/>
+    <col min="10" max="10" width="22.5545454545455" style="16" customWidth="1"/>
     <col min="21" max="21" width="14.4454545454545" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="9"/>
+      <c r="J3" s="7"/>
     </row>
     <row r="4" ht="16.5" spans="1:10">
-      <c r="A4" s="13">
+      <c r="A4" s="11">
         <v>1</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="19" t="e">
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="20" t="e">
         <f t="shared" ref="J4:J43" si="0">AVERAGE(F4:I4)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:10">
-      <c r="A5" s="13">
+      <c r="A5" s="11">
         <v>2</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="19" t="e">
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="1:10">
-      <c r="A6" s="13">
+      <c r="A6" s="11">
         <v>3</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="19" t="e">
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:10">
-      <c r="A7" s="13">
+      <c r="A7" s="11">
         <v>4</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="19" t="e">
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="1:10">
-      <c r="A8" s="13">
+      <c r="A8" s="11">
         <v>5</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="19" t="e">
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" ht="16.5" spans="1:10">
-      <c r="A9" s="13">
+      <c r="A9" s="11">
         <v>6</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="19" t="e">
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="1:10">
-      <c r="A10" s="13">
+      <c r="A10" s="11">
         <v>7</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="19" t="e">
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="1:10">
-      <c r="A11" s="13">
+      <c r="A11" s="11">
         <v>8</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="19" t="e">
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="1:10">
-      <c r="A12" s="13">
+      <c r="A12" s="11">
         <v>9</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="19" t="e">
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" ht="16.5" spans="1:10">
-      <c r="A13" s="13">
+      <c r="A13" s="11">
         <v>10</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="19" t="e">
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" ht="16.5" spans="1:10">
-      <c r="A14" s="13">
+      <c r="A14" s="11">
         <v>11</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="19" t="e">
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" ht="16.5" spans="1:10">
-      <c r="A15" s="13">
+      <c r="A15" s="11">
         <v>12</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="19" t="e">
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16" ht="16.5" spans="1:10">
-      <c r="A16" s="13">
+      <c r="A16" s="11">
         <v>13</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="19" t="e">
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17" ht="16.5" spans="1:10">
-      <c r="A17" s="13">
+      <c r="A17" s="11">
         <v>14</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="19" t="e">
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18" ht="16.5" spans="1:10">
-      <c r="A18" s="13">
+      <c r="A18" s="11">
         <v>15</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="19" t="e">
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" ht="16.5" spans="1:10">
-      <c r="A19" s="13">
+      <c r="A19" s="11">
         <v>16</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="19" t="e">
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20" ht="16.5" spans="1:10">
-      <c r="A20" s="13">
+      <c r="A20" s="11">
         <v>17</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="19" t="e">
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" ht="16.5" spans="1:10">
-      <c r="A21" s="13">
+      <c r="A21" s="11">
         <v>18</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="19" t="e">
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22" ht="16.5" spans="1:10">
-      <c r="A22" s="13">
+      <c r="A22" s="11">
         <v>19</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="19" t="e">
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23" ht="16.5" spans="1:10">
-      <c r="A23" s="13">
+      <c r="A23" s="11">
         <v>20</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="19" t="e">
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" ht="16.5" spans="1:10">
-      <c r="A24" s="13">
+      <c r="A24" s="11">
         <v>21</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="19" t="e">
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25" ht="16.5" spans="1:10">
-      <c r="A25" s="13">
+      <c r="A25" s="11">
         <v>22</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="19" t="e">
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26" ht="16.5" spans="1:10">
-      <c r="A26" s="13">
+      <c r="A26" s="11">
         <v>23</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="19" t="e">
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27" ht="16.5" spans="1:10">
-      <c r="A27" s="13">
+      <c r="A27" s="11">
         <v>24</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="19" t="e">
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28" ht="16.5" spans="1:10">
-      <c r="A28" s="13">
+      <c r="A28" s="11">
         <v>25</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="E28" s="22" t="s">
+      <c r="E28" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="19" t="e">
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29" ht="16.5" spans="1:10">
-      <c r="A29" s="13">
+      <c r="A29" s="11">
         <v>26</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="D29" s="22" t="s">
+      <c r="D29" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="E29" s="22" t="s">
+      <c r="E29" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="19" t="e">
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="30" ht="16.5" spans="1:10">
-      <c r="A30" s="13">
+      <c r="A30" s="11">
         <v>27</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="D30" s="22" t="s">
+      <c r="D30" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="E30" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="19" t="e">
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="31" ht="16.5" spans="1:10">
-      <c r="A31" s="13">
+      <c r="A31" s="11">
         <v>28</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="D31" s="22" t="s">
+      <c r="D31" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="E31" s="22" t="s">
+      <c r="E31" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="19" t="e">
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="32" ht="16.5" spans="1:10">
-      <c r="A32" s="13">
+      <c r="A32" s="11">
         <v>29</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="D32" s="22" t="s">
+      <c r="D32" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="E32" s="22" t="s">
+      <c r="E32" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="19" t="e">
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="33" ht="16.5" spans="1:10">
-      <c r="A33" s="13">
+      <c r="A33" s="11">
         <v>30</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="D33" s="22" t="s">
+      <c r="D33" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="E33" s="22" t="s">
+      <c r="E33" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="19" t="e">
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="34" ht="16.5" spans="1:10">
-      <c r="A34" s="13">
+      <c r="A34" s="11">
         <v>31</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D34" s="22" t="s">
+      <c r="D34" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="E34" s="22" t="s">
+      <c r="E34" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="19" t="e">
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" ht="16.5" spans="1:10">
-      <c r="A35" s="13">
+      <c r="A35" s="11">
         <v>32</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="D35" s="22" t="s">
+      <c r="D35" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="E35" s="22" t="s">
+      <c r="E35" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="19" t="e">
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="36" ht="16.5" spans="1:10">
-      <c r="A36" s="13">
+      <c r="A36" s="11">
         <v>33</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="D36" s="22" t="s">
+      <c r="D36" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="E36" s="22" t="s">
+      <c r="E36" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="19" t="e">
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="37" ht="16.5" spans="1:10">
-      <c r="A37" s="13">
+      <c r="A37" s="11">
         <v>34</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="D37" s="22" t="s">
+      <c r="D37" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="E37" s="22" t="s">
+      <c r="E37" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="19" t="e">
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="38" ht="16.5" spans="1:10">
-      <c r="A38" s="13">
+      <c r="A38" s="11">
         <v>35</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="D38" s="22" t="s">
+      <c r="D38" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="E38" s="22" t="s">
+      <c r="E38" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="19" t="e">
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="39" ht="16.5" spans="1:10">
-      <c r="A39" s="13">
+      <c r="A39" s="11">
         <v>36</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="C39" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="D39" s="22" t="s">
+      <c r="D39" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="E39" s="22" t="s">
+      <c r="E39" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="19" t="e">
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="40" ht="16.5" spans="1:10">
-      <c r="A40" s="13">
+      <c r="A40" s="11">
         <v>37</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="D40" s="22" t="s">
+      <c r="D40" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="E40" s="22" t="s">
+      <c r="E40" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="19" t="e">
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="41" ht="16.5" spans="1:10">
-      <c r="A41" s="13">
+      <c r="A41" s="11">
         <v>38</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="22" t="s">
+      <c r="C41" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="D41" s="22" t="s">
+      <c r="D41" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="E41" s="22" t="s">
+      <c r="E41" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="19" t="e">
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="42" ht="16.5" spans="1:10">
-      <c r="A42" s="13">
+      <c r="A42" s="11">
         <v>39</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C42" s="22" t="s">
+      <c r="C42" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="D42" s="22" t="s">
+      <c r="D42" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="E42" s="22" t="s">
+      <c r="E42" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="19" t="e">
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="43" ht="16.5" spans="1:10">
-      <c r="A43" s="13">
+      <c r="A43" s="11">
         <v>40</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C43" s="22" t="s">
+      <c r="C43" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="D43" s="22">
+      <c r="D43" s="21">
         <v>12019245918</v>
       </c>
-      <c r="E43" s="22" t="s">
+      <c r="E43" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="19" t="e">
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="44" ht="16.5" spans="1:10">
-      <c r="A44" s="13">
+      <c r="A44" s="11">
         <v>41</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C44" s="22" t="s">
+      <c r="C44" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="D44" s="22">
+      <c r="D44" s="21">
         <v>12016246281</v>
       </c>
-      <c r="E44" s="22" t="s">
+      <c r="E44" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="18"/>
-      <c r="J44" s="19" t="e">
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="20" t="e">
         <f t="shared" ref="J44" si="1">AVERAGE(F44:I44)</f>
         <v>#DIV/0!</v>
       </c>
@@ -3537,8 +3648,8 @@
   <sheetPr/>
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="O18" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -3546,1133 +3657,1211 @@
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="22.5545454545455" customWidth="1"/>
     <col min="3" max="3" width="16.7818181818182" customWidth="1"/>
-    <col min="4" max="4" width="21.5545454545455" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5545454545455" style="15" customWidth="1"/>
     <col min="5" max="5" width="25.1090909090909" customWidth="1"/>
     <col min="6" max="6" width="13.2181818181818" customWidth="1"/>
-    <col min="7" max="9" width="13.6636363636364" style="2" customWidth="1"/>
-    <col min="10" max="10" width="22.5545454545455" style="2" customWidth="1"/>
+    <col min="7" max="9" width="13.6636363636364" style="16" customWidth="1"/>
+    <col min="10" max="10" width="22.5545454545455" style="16" customWidth="1"/>
     <col min="21" max="21" width="14.4454545454545" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="20">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="10">
         <v>44104</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="9"/>
+      <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="13">
+      <c r="A4" s="11">
         <v>1</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="18">
         <v>12019246203</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="19">
         <v>66.6666666666667</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="19">
+      <c r="G4" s="19">
+        <v>40</v>
+      </c>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="20">
         <f t="shared" ref="J4:J40" si="0">AVERAGE(F4:I4)</f>
+        <v>53.3333333333333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="11">
+        <v>2</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="18">
+        <v>12019246207</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F5" s="19">
         <v>66.6666666666667</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="13">
-        <v>2</v>
-      </c>
-      <c r="B5" s="12" t="s">
+      <c r="G5" s="19">
+        <v>40</v>
+      </c>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="20">
+        <f t="shared" si="0"/>
+        <v>53.3333333333333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="11">
+        <v>3</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="D5" s="15">
-        <v>12019246207</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="F5" s="21">
+      <c r="C6" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" s="18">
+        <v>12019246209</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="F6" s="19">
+        <v>40</v>
+      </c>
+      <c r="G6" s="19">
+        <v>40</v>
+      </c>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="20">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="11">
+        <v>4</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" s="18">
+        <v>12019246213</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="19">
+        <v>53.3333333333333</v>
+      </c>
+      <c r="G7" s="19">
+        <v>40</v>
+      </c>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="20">
+        <f t="shared" si="0"/>
+        <v>46.6666666666667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="11">
+        <v>5</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" s="18">
+        <v>12019246215</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="F8" s="19">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="G8" s="19">
+        <v>60</v>
+      </c>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="20">
+        <f t="shared" si="0"/>
+        <v>46.6666666666667</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="11">
+        <v>6</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D9" s="18">
+        <v>12019246217</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="F9" s="19">
+        <v>40</v>
+      </c>
+      <c r="G9" s="19">
+        <v>50</v>
+      </c>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="20">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="11">
+        <v>7</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="D10" s="18">
+        <v>12019246223</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F10" s="19">
+        <v>46.6666666666667</v>
+      </c>
+      <c r="G10" s="19">
+        <v>40</v>
+      </c>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="20">
+        <f t="shared" si="0"/>
+        <v>43.3333333333333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="11">
+        <v>8</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" s="18">
+        <v>12019246224</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="F11" s="19">
+        <v>60</v>
+      </c>
+      <c r="G11" s="19">
+        <v>50</v>
+      </c>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="20">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="11">
+        <v>9</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="D12" s="18">
+        <v>12019246230</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="19">
         <v>66.6666666666667</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="19">
-        <f t="shared" si="0"/>
+      <c r="G12" s="19">
+        <v>40</v>
+      </c>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="20">
+        <f t="shared" si="0"/>
+        <v>53.3333333333333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="11">
+        <v>10</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D13" s="18">
+        <v>12019246234</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="F13" s="19">
+        <v>40</v>
+      </c>
+      <c r="G13" s="19">
+        <v>40</v>
+      </c>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="20">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="11">
+        <v>11</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="D14" s="18">
+        <v>12019246235</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="F14" s="19">
         <v>66.6666666666667</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="13">
-        <v>3</v>
-      </c>
-      <c r="B6" s="12" t="s">
+      <c r="G14" s="19">
+        <v>50</v>
+      </c>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="20">
+        <f t="shared" si="0"/>
+        <v>58.3333333333333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="11">
+        <v>12</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="D6" s="15">
-        <v>12019246209</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="F6" s="21">
+      <c r="C15" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="D15" s="18">
+        <v>12019246237</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="F15" s="19">
         <v>40</v>
       </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="19">
-        <f t="shared" si="0"/>
+      <c r="G15" s="19">
+        <v>70</v>
+      </c>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="20">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="11">
+        <v>13</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="D16" s="18">
+        <v>12019246241</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="F16" s="19">
+        <v>46.6666666666667</v>
+      </c>
+      <c r="G16" s="19">
+        <v>30</v>
+      </c>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="20">
+        <f t="shared" si="0"/>
+        <v>38.3333333333333</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="11">
+        <v>14</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="D17" s="18">
+        <v>12019246248</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="F17" s="19">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="13">
-        <v>4</v>
-      </c>
-      <c r="B7" s="12" t="s">
+      <c r="G17" s="19">
+        <v>20</v>
+      </c>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="20">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="11">
+        <v>15</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="D7" s="15">
-        <v>12019246213</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F7" s="21">
+      <c r="C18" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="D18" s="18">
+        <v>12019246252</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="F18" s="19">
         <v>53.3333333333333</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="19">
+      <c r="G18" s="19">
+        <v>50</v>
+      </c>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="20">
+        <f t="shared" si="0"/>
+        <v>51.6666666666667</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="11">
+        <v>16</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="D19" s="18">
+        <v>12019246254</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F19" s="19">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="G19" s="19">
+        <v>50</v>
+      </c>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="20">
+        <f t="shared" si="0"/>
+        <v>58.3333333333333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="11">
+        <v>17</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="D20" s="18">
+        <v>12019246262</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="F20" s="19">
+        <v>40</v>
+      </c>
+      <c r="G20" s="19">
+        <v>50</v>
+      </c>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="20">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="11">
+        <v>18</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="D21" s="18">
+        <v>12019246265</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="F21" s="19">
+        <v>40</v>
+      </c>
+      <c r="G21" s="19">
+        <v>80</v>
+      </c>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="20">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="11">
+        <v>19</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="D22" s="18">
+        <v>12019246267</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="F22" s="19">
+        <v>26.6666666666667</v>
+      </c>
+      <c r="G22" s="19">
+        <v>40</v>
+      </c>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="20">
+        <f t="shared" si="0"/>
+        <v>33.3333333333333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="11">
+        <v>20</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="D23" s="18">
+        <v>12019246271</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="F23" s="19">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="G23" s="19">
+        <v>10</v>
+      </c>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="20">
+        <f t="shared" si="0"/>
+        <v>38.3333333333333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="11">
+        <v>21</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="D24" s="18">
+        <v>12019246272</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="F24" s="19">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="G24" s="19">
+        <v>50</v>
+      </c>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="20">
+        <f t="shared" si="0"/>
+        <v>41.6666666666667</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="11">
+        <v>22</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="D25" s="18">
+        <v>12019246275</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="F25" s="19">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="G25" s="19">
+        <v>50</v>
+      </c>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="20">
+        <f t="shared" si="0"/>
+        <v>41.6666666666667</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="11">
+        <v>23</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="D26" s="18">
+        <v>12019246279</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="F26" s="19">
+        <v>46.6666666666667</v>
+      </c>
+      <c r="G26" s="19">
+        <v>60</v>
+      </c>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="20">
         <f t="shared" si="0"/>
         <v>53.3333333333333</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="13">
-        <v>5</v>
-      </c>
-      <c r="B8" s="12" t="s">
+    <row r="27" spans="1:10">
+      <c r="A27" s="11">
+        <v>24</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="D8" s="15">
-        <v>12019246215</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="F8" s="21">
+      <c r="C27" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="D27" s="18">
+        <v>12019246283</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="F27" s="19">
         <v>33.3333333333333</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="19">
-        <f t="shared" si="0"/>
+      <c r="G27" s="19">
+        <v>50</v>
+      </c>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="20">
+        <f t="shared" si="0"/>
+        <v>41.6666666666667</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="11">
+        <v>25</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="D28" s="18">
+        <v>12019246284</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F28" s="19">
+        <v>46.6666666666667</v>
+      </c>
+      <c r="G28" s="19">
+        <v>60</v>
+      </c>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="20">
+        <f t="shared" si="0"/>
+        <v>53.3333333333333</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="11">
+        <v>26</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="D29" s="18">
+        <v>12019246286</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F29" s="19">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="G29" s="19">
+        <v>40</v>
+      </c>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="20">
+        <f t="shared" si="0"/>
+        <v>53.3333333333333</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="11">
+        <v>27</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="D30" s="18">
+        <v>12019246288</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="F30" s="19">
         <v>33.3333333333333</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="13">
-        <v>6</v>
-      </c>
-      <c r="B9" s="12" t="s">
+      <c r="G30" s="19">
+        <v>80</v>
+      </c>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="20">
+        <f t="shared" si="0"/>
+        <v>56.6666666666667</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="11">
+        <v>28</v>
+      </c>
+      <c r="B31" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="D9" s="15">
-        <v>12019246217</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="F9" s="21">
+      <c r="C31" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="D31" s="18">
+        <v>12019246293</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="F31" s="19">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="G31" s="19">
+        <v>30</v>
+      </c>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="20">
+        <f t="shared" si="0"/>
+        <v>31.6666666666667</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="11">
+        <v>29</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="D32" s="18">
+        <v>12019246294</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="F32" s="19">
+        <v>60</v>
+      </c>
+      <c r="G32" s="19">
+        <v>60</v>
+      </c>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="20">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="11">
+        <v>30</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="D33" s="18">
+        <v>12019246296</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="F33" s="19">
         <v>40</v>
       </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="19">
-        <f t="shared" si="0"/>
+      <c r="G33" s="19">
+        <v>50</v>
+      </c>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="20">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="11">
+        <v>31</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="D34" s="18">
+        <v>12019246300</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="F34" s="19">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="G34" s="19">
+        <v>60</v>
+      </c>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="20">
+        <f t="shared" si="0"/>
+        <v>63.3333333333333</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="11">
+        <v>32</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="D35" s="18">
+        <v>12019246301</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="F35" s="19">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="13">
-        <v>7</v>
-      </c>
-      <c r="B10" s="12" t="s">
+      <c r="G35" s="19">
+        <v>50</v>
+      </c>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="20">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="11">
+        <v>33</v>
+      </c>
+      <c r="B36" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="D10" s="15">
-        <v>12019246223</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="F10" s="21">
+      <c r="C36" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="D36" s="18">
+        <v>12019246302</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="F36" s="19">
         <v>46.6666666666667</v>
       </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="19">
-        <f t="shared" si="0"/>
-        <v>46.6666666666667</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="13">
-        <v>8</v>
-      </c>
-      <c r="B11" s="12" t="s">
+      <c r="G36" s="19">
+        <v>80</v>
+      </c>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="20">
+        <f t="shared" si="0"/>
+        <v>63.3333333333333</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="11">
+        <v>34</v>
+      </c>
+      <c r="B37" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="D11" s="15">
-        <v>12019246224</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="F11" s="21">
+      <c r="C37" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="D37" s="18">
+        <v>12019246307</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="F37" s="19">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="G37" s="19">
+        <v>30</v>
+      </c>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="20">
+        <f t="shared" si="0"/>
+        <v>31.6666666666667</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="11">
+        <v>35</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="D38" s="18">
+        <v>12019246308</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="F38" s="19">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="G38" s="19">
+        <v>40</v>
+      </c>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="20">
+        <f t="shared" si="0"/>
+        <v>36.6666666666667</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="11">
+        <v>36</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="D39" s="18">
+        <v>12019246315</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="F39" s="19">
+        <v>53.3333333333333</v>
+      </c>
+      <c r="G39" s="19">
+        <v>50</v>
+      </c>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="20">
+        <f t="shared" si="0"/>
+        <v>51.6666666666667</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="11">
+        <v>37</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="D40" s="18">
+        <v>12019246316</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="F40" s="19">
+        <v>26.6666666666667</v>
+      </c>
+      <c r="G40" s="19">
+        <v>50</v>
+      </c>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="20">
+        <f t="shared" si="0"/>
+        <v>38.3333333333333</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="11">
+        <v>38</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D41" s="18">
+        <v>12019246317</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="F41" s="19">
+        <v>20</v>
+      </c>
+      <c r="G41" s="19">
+        <v>10</v>
+      </c>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="20">
+        <f t="shared" ref="J41:J42" si="1">AVERAGE(F41:I41)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="11">
+        <v>39</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="D42" s="18">
+        <v>12019245937</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="F42" s="19">
         <v>60</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="19">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="13">
-        <v>9</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="D12" s="15">
-        <v>12019246230</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" s="21">
-        <v>66.6666666666667</v>
-      </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="19">
-        <f t="shared" si="0"/>
-        <v>66.6666666666667</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="13">
-        <v>10</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="D13" s="15">
-        <v>12019246234</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="F13" s="21">
-        <v>40</v>
-      </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="19">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="13">
-        <v>11</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="D14" s="15">
-        <v>12019246235</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="F14" s="21">
-        <v>66.6666666666667</v>
-      </c>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="19">
-        <f t="shared" si="0"/>
-        <v>66.6666666666667</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="13">
-        <v>12</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="D15" s="15">
-        <v>12019246237</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="F15" s="21">
-        <v>40</v>
-      </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="19">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="13">
-        <v>13</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="D16" s="15">
-        <v>12019246241</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="F16" s="21">
-        <v>46.6666666666667</v>
-      </c>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="19">
-        <f t="shared" si="0"/>
-        <v>46.6666666666667</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="13">
-        <v>14</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="D17" s="15">
-        <v>12019246248</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="F17" s="21">
-        <v>40</v>
-      </c>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="19">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="13">
-        <v>15</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="D18" s="15">
-        <v>12019246252</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="F18" s="21">
-        <v>53.3333333333333</v>
-      </c>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="19">
-        <f t="shared" si="0"/>
-        <v>53.3333333333333</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="13">
-        <v>16</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="D19" s="15">
-        <v>12019246254</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="F19" s="21">
-        <v>66.6666666666667</v>
-      </c>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="19">
-        <f t="shared" si="0"/>
-        <v>66.6666666666667</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="13">
-        <v>17</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="D20" s="15">
-        <v>12019246262</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="F20" s="21">
-        <v>40</v>
-      </c>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="19">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="13">
-        <v>18</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="D21" s="15">
-        <v>12019246265</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="F21" s="21">
-        <v>40</v>
-      </c>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="19">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="13">
-        <v>19</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="D22" s="15">
-        <v>12019246267</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="F22" s="21">
-        <v>26.6666666666667</v>
-      </c>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="19">
-        <f t="shared" si="0"/>
-        <v>26.6666666666667</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="13">
-        <v>20</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="D23" s="15">
-        <v>12019246271</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="F23" s="21">
-        <v>66.6666666666667</v>
-      </c>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="19">
-        <f t="shared" si="0"/>
-        <v>66.6666666666667</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="13">
-        <v>21</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="D24" s="15">
-        <v>12019246272</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="F24" s="21">
-        <v>33.3333333333333</v>
-      </c>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="19">
-        <f t="shared" si="0"/>
-        <v>33.3333333333333</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="13">
-        <v>22</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="D25" s="15">
-        <v>12019246275</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="F25" s="21">
-        <v>33.3333333333333</v>
-      </c>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="19">
-        <f t="shared" si="0"/>
-        <v>33.3333333333333</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="13">
-        <v>23</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="D26" s="15">
-        <v>12019246279</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="F26" s="21">
-        <v>46.6666666666667</v>
-      </c>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="19">
-        <f t="shared" si="0"/>
-        <v>46.6666666666667</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="13">
-        <v>24</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="D27" s="15">
-        <v>12019246283</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="F27" s="21">
-        <v>33.3333333333333</v>
-      </c>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="19">
-        <f t="shared" si="0"/>
-        <v>33.3333333333333</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="13">
-        <v>25</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="D28" s="15">
-        <v>12019246284</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="F28" s="21">
-        <v>46.6666666666667</v>
-      </c>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="19">
-        <f t="shared" si="0"/>
-        <v>46.6666666666667</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="13">
-        <v>26</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="D29" s="15">
-        <v>12019246286</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="F29" s="21">
-        <v>66.6666666666667</v>
-      </c>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="19">
-        <f t="shared" si="0"/>
-        <v>66.6666666666667</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="13">
-        <v>27</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="D30" s="15">
-        <v>12019246288</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="F30" s="21">
-        <v>33.3333333333333</v>
-      </c>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="19">
-        <f t="shared" si="0"/>
-        <v>33.3333333333333</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="13">
-        <v>28</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="D31" s="15">
-        <v>12019246293</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="F31" s="21">
-        <v>33.3333333333333</v>
-      </c>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="19">
-        <f t="shared" si="0"/>
-        <v>33.3333333333333</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="13">
-        <v>29</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="D32" s="15">
-        <v>12019246294</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="F32" s="21">
-        <v>60</v>
-      </c>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="19">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="13">
+      <c r="G42" s="19">
         <v>30</v>
       </c>
-      <c r="B33" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="D33" s="15">
-        <v>12019246296</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="F33" s="21">
-        <v>40</v>
-      </c>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="19">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="13">
-        <v>31</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="D34" s="15">
-        <v>12019246300</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="F34" s="21">
-        <v>66.6666666666667</v>
-      </c>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="19">
-        <f t="shared" si="0"/>
-        <v>66.6666666666667</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="13">
-        <v>32</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="D35" s="15">
-        <v>12019246301</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="F35" s="21">
-        <v>40</v>
-      </c>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="19">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="13">
-        <v>33</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="D36" s="15">
-        <v>12019246302</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="F36" s="21">
-        <v>46.6666666666667</v>
-      </c>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="19">
-        <f t="shared" si="0"/>
-        <v>46.6666666666667</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="13">
-        <v>34</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="D37" s="15">
-        <v>12019246307</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="F37" s="21">
-        <v>33.3333333333333</v>
-      </c>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="19">
-        <f t="shared" si="0"/>
-        <v>33.3333333333333</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="13">
-        <v>35</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="D38" s="15">
-        <v>12019246308</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="F38" s="21">
-        <v>33.3333333333333</v>
-      </c>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="19">
-        <f t="shared" si="0"/>
-        <v>33.3333333333333</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="13">
-        <v>36</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D39" s="15">
-        <v>12019246315</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="F39" s="21">
-        <v>53.3333333333333</v>
-      </c>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="19">
-        <f t="shared" si="0"/>
-        <v>53.3333333333333</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="13">
-        <v>37</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="D40" s="15">
-        <v>12019246316</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="F40" s="21">
-        <v>26.6666666666667</v>
-      </c>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="19">
-        <f t="shared" si="0"/>
-        <v>26.6666666666667</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="13">
-        <v>38</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="D41" s="15">
-        <v>12019246317</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="F41" s="21">
-        <v>20</v>
-      </c>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="19">
-        <f t="shared" ref="J41:J42" si="1">AVERAGE(F41:I41)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="13">
-        <v>39</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="D42" s="15">
-        <v>12019245937</v>
-      </c>
-      <c r="E42" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="F42" s="21">
-        <v>60</v>
-      </c>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="19">
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="20">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -4717,1078 +4906,1078 @@
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="22.5545454545455" customWidth="1"/>
     <col min="3" max="3" width="16.7818181818182" customWidth="1"/>
-    <col min="4" max="4" width="21.5545454545455" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5545454545455" style="15" customWidth="1"/>
     <col min="5" max="5" width="25.1090909090909" customWidth="1"/>
     <col min="6" max="6" width="13.2181818181818" customWidth="1"/>
-    <col min="7" max="9" width="13.6636363636364" style="2" customWidth="1"/>
-    <col min="10" max="10" width="22.5545454545455" style="2" customWidth="1"/>
+    <col min="7" max="9" width="13.6636363636364" style="16" customWidth="1"/>
+    <col min="10" max="10" width="22.5545454545455" style="16" customWidth="1"/>
     <col min="21" max="21" width="14.4454545454545" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="9"/>
+      <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="13">
+      <c r="A4" s="11">
         <v>1</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="18">
         <v>12019246202</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="19" t="e">
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="20" t="e">
         <f t="shared" ref="J4:J40" si="0">AVERAGE(F4:I4)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="13">
+      <c r="A5" s="11">
         <v>2</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="18">
         <v>12019246205</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="19" t="e">
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="13">
+      <c r="A6" s="11">
         <v>3</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="18">
         <v>12019246206</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="19" t="e">
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="13">
+      <c r="A7" s="11">
         <v>4</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="18">
         <v>12019246212</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="19" t="e">
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="13">
+      <c r="A8" s="11">
         <v>5</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="18">
         <v>12019246218</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="19" t="e">
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="13">
+      <c r="A9" s="11">
         <v>6</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="18">
         <v>12019246219</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="19" t="e">
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="13">
+      <c r="A10" s="11">
         <v>7</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="18">
         <v>12019246225</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="19" t="e">
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="13">
+      <c r="A11" s="11">
         <v>8</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="18">
         <v>12019246227</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="19" t="e">
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="13">
+      <c r="A12" s="11">
         <v>9</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="18">
         <v>12019246232</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="19" t="e">
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="13">
+      <c r="A13" s="11">
         <v>10</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="18">
         <v>12019246238</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="19" t="e">
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="13">
+      <c r="A14" s="11">
         <v>11</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="18">
         <v>12019246243</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="19" t="e">
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="13">
+      <c r="A15" s="11">
         <v>12</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="18">
         <v>12019246249</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="19" t="e">
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="13">
+      <c r="A16" s="11">
         <v>13</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="18">
         <v>12019246251</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="19" t="e">
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="13">
+      <c r="A17" s="11">
         <v>14</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="18">
         <v>12019246255</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="19" t="e">
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="13">
+      <c r="A18" s="11">
         <v>15</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="18">
         <v>12019246256</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="19" t="e">
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="13">
+      <c r="A19" s="11">
         <v>16</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="18">
         <v>12019246259</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="19" t="e">
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="13">
+      <c r="A20" s="11">
         <v>17</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="18">
         <v>12019246260</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="19" t="e">
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="13">
+      <c r="A21" s="11">
         <v>18</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="18">
         <v>12019246261</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="19" t="e">
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="13">
+      <c r="A22" s="11">
         <v>19</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="18">
         <v>12019246269</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="19" t="e">
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="13">
+      <c r="A23" s="11">
         <v>20</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="18">
         <v>12019246274</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="19" t="e">
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="13">
+      <c r="A24" s="11">
         <v>21</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="18">
         <v>12019246276</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="19" t="e">
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="13">
+      <c r="A25" s="11">
         <v>22</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D25" s="18">
         <v>12019246278</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="19" t="e">
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="13">
+      <c r="A26" s="11">
         <v>23</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D26" s="18">
         <v>12019246280</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="19" t="e">
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="13">
+      <c r="A27" s="11">
         <v>24</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D27" s="18">
         <v>12019246281</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="19" t="e">
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="13">
+      <c r="A28" s="11">
         <v>25</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D28" s="18">
         <v>12019246282</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="19" t="e">
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="13">
+      <c r="A29" s="11">
         <v>26</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D29" s="18">
         <v>12019246285</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="E29" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="19" t="e">
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="13">
+      <c r="A30" s="11">
         <v>27</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D30" s="18">
         <v>12019246289</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="19" t="e">
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="13">
+      <c r="A31" s="11">
         <v>28</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D31" s="18">
         <v>12019246291</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E31" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="19" t="e">
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="13">
+      <c r="A32" s="11">
         <v>29</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="D32" s="15">
+      <c r="D32" s="18">
         <v>12019246292</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E32" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="19" t="e">
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="13">
+      <c r="A33" s="11">
         <v>30</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D33" s="18">
         <v>12019246305</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="E33" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="19" t="e">
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="13">
+      <c r="A34" s="11">
         <v>31</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D34" s="18">
         <v>12019246306</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="E34" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="19" t="e">
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="13">
+      <c r="A35" s="11">
         <v>32</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="D35" s="15">
+      <c r="D35" s="18">
         <v>12019246309</v>
       </c>
-      <c r="E35" s="12" t="s">
+      <c r="E35" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="19" t="e">
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="13">
+      <c r="A36" s="11">
         <v>33</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="D36" s="15">
+      <c r="D36" s="18">
         <v>12019246310</v>
       </c>
-      <c r="E36" s="12" t="s">
+      <c r="E36" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="19" t="e">
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="13">
+      <c r="A37" s="11">
         <v>34</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="D37" s="15">
+      <c r="D37" s="18">
         <v>12019246313</v>
       </c>
-      <c r="E37" s="12" t="s">
+      <c r="E37" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="19" t="e">
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="13">
+      <c r="A38" s="11">
         <v>35</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="D38" s="15">
+      <c r="D38" s="18">
         <v>12019246314</v>
       </c>
-      <c r="E38" s="12" t="s">
+      <c r="E38" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="19" t="e">
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="13">
+      <c r="A39" s="11">
         <v>36</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C39" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="D39" s="15">
+      <c r="D39" s="18">
         <v>12019246318</v>
       </c>
-      <c r="E39" s="12" t="s">
+      <c r="E39" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="19" t="e">
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="13">
+      <c r="A40" s="11">
         <v>37</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C40" s="17" t="s">
         <v>279</v>
       </c>
-      <c r="D40" s="15">
+      <c r="D40" s="18">
         <v>12019246319</v>
       </c>
-      <c r="E40" s="12" t="s">
+      <c r="E40" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="19" t="e">
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="13">
+      <c r="A41" s="11">
         <v>38</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="17" t="s">
         <v>281</v>
       </c>
-      <c r="D41" s="15">
+      <c r="D41" s="18">
         <v>12018246128</v>
       </c>
-      <c r="E41" s="12" t="s">
+      <c r="E41" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="19" t="e">
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="20" t="e">
         <f t="shared" ref="J41:J42" si="1">AVERAGE(F41:I41)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="13">
+      <c r="A42" s="11">
         <v>39</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="D42" s="15">
+      <c r="D42" s="18">
         <v>12019246066</v>
       </c>
-      <c r="E42" s="12" t="s">
+      <c r="E42" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="19" t="e">
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="20" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="13">
+      <c r="A43" s="11">
         <v>40</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C43" s="17" t="s">
         <v>284</v>
       </c>
-      <c r="D43" s="15">
+      <c r="D43" s="18">
         <v>12019245950</v>
       </c>
-      <c r="E43" s="12" t="s">
+      <c r="E43" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="19" t="e">
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="20" t="e">
         <f t="shared" ref="J43" si="2">AVERAGE(F43:I43)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5835,928 +6024,928 @@
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="22.5545454545455" customWidth="1"/>
     <col min="3" max="3" width="16.7818181818182" customWidth="1"/>
-    <col min="4" max="4" width="21.5545454545455" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5545454545455" style="15" customWidth="1"/>
     <col min="5" max="5" width="25.1090909090909" customWidth="1"/>
     <col min="6" max="6" width="13.2181818181818" customWidth="1"/>
-    <col min="7" max="9" width="13.6636363636364" style="2" customWidth="1"/>
-    <col min="10" max="10" width="22.5545454545455" style="2" customWidth="1"/>
+    <col min="7" max="9" width="13.6636363636364" style="16" customWidth="1"/>
+    <col min="10" max="10" width="22.5545454545455" style="16" customWidth="1"/>
     <col min="21" max="21" width="14.4454545454545" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="9"/>
+      <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="13">
+      <c r="A4" s="11">
         <v>1</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="17" t="s">
         <v>287</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="18">
         <v>12019246351</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="19" t="e">
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="20" t="e">
         <f t="shared" ref="J4:J37" si="0">AVERAGE(F4:I4)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="13">
+      <c r="A5" s="11">
         <v>2</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="18">
         <v>12019246352</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="19" t="e">
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="13">
+      <c r="A6" s="11">
         <v>3</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="18">
         <v>12019246353</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="19" t="e">
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="13">
+      <c r="A7" s="11">
         <v>4</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="18">
         <v>12019246355</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="19" t="e">
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="13">
+      <c r="A8" s="11">
         <v>5</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="17" t="s">
         <v>293</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="18">
         <v>12019246356</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="19" t="e">
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="13">
+      <c r="A9" s="11">
         <v>6</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="18">
         <v>12019246359</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="19" t="e">
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="13">
+      <c r="A10" s="11">
         <v>7</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="18">
         <v>12019246361</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="19" t="e">
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="13">
+      <c r="A11" s="11">
         <v>8</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="18">
         <v>12019246362</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="19" t="e">
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="13">
+      <c r="A12" s="11">
         <v>9</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="18">
         <v>12019246364</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="19" t="e">
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="13">
+      <c r="A13" s="11">
         <v>10</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="18">
         <v>12019246368</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="19" t="e">
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="13">
+      <c r="A14" s="11">
         <v>11</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="18">
         <v>12019246370</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="19" t="e">
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="13">
+      <c r="A15" s="11">
         <v>12</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="18">
         <v>12019246372</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="19" t="e">
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="13">
+      <c r="A16" s="11">
         <v>13</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="18">
         <v>12019246375</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="19" t="e">
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="13">
+      <c r="A17" s="11">
         <v>14</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="17" t="s">
         <v>309</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="18">
         <v>12019246380</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="19" t="e">
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="13">
+      <c r="A18" s="11">
         <v>15</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="17" t="s">
         <v>310</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="18">
         <v>12019246381</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="19" t="e">
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="13">
+      <c r="A19" s="11">
         <v>16</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="17" t="s">
         <v>312</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="18">
         <v>12019246382</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="19" t="e">
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="13">
+      <c r="A20" s="11">
         <v>17</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="17" t="s">
         <v>314</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="18">
         <v>12019246384</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="19" t="e">
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="13">
+      <c r="A21" s="11">
         <v>18</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="17" t="s">
         <v>316</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="18">
         <v>12019246386</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="19" t="e">
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="13">
+      <c r="A22" s="11">
         <v>19</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="18">
         <v>12019246388</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="19" t="e">
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="13">
+      <c r="A23" s="11">
         <v>20</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="17" t="s">
         <v>320</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="18">
         <v>12019246391</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="19" t="e">
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="13">
+      <c r="A24" s="11">
         <v>21</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="17" t="s">
         <v>322</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="18">
         <v>12019246395</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="19" t="e">
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="13">
+      <c r="A25" s="11">
         <v>22</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="17" t="s">
         <v>324</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D25" s="18">
         <v>12019246397</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="19" t="e">
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="13">
+      <c r="A26" s="11">
         <v>23</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D26" s="18">
         <v>12019246399</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="19" t="e">
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="13">
+      <c r="A27" s="11">
         <v>24</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D27" s="18">
         <v>12019246402</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="19" t="e">
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="13">
+      <c r="A28" s="11">
         <v>25</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="17" t="s">
         <v>330</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D28" s="18">
         <v>12019246403</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="19" t="e">
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="13">
+      <c r="A29" s="11">
         <v>26</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D29" s="18">
         <v>12019246405</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="E29" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="19" t="e">
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="13">
+      <c r="A30" s="11">
         <v>27</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D30" s="18">
         <v>12019246407</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="19" t="e">
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="13">
+      <c r="A31" s="11">
         <v>28</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="17" t="s">
         <v>336</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D31" s="18">
         <v>12019246410</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E31" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="19" t="e">
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="13">
+      <c r="A32" s="11">
         <v>29</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="17" t="s">
         <v>338</v>
       </c>
-      <c r="D32" s="15">
+      <c r="D32" s="18">
         <v>12019246412</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E32" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="19" t="e">
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="13">
+      <c r="A33" s="11">
         <v>30</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="17" t="s">
         <v>340</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D33" s="18">
         <v>12019246414</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="E33" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="19" t="e">
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="13">
+      <c r="A34" s="11">
         <v>31</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="17" t="s">
         <v>341</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D34" s="18">
         <v>12019246415</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="E34" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="19" t="e">
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="13">
+      <c r="A35" s="11">
         <v>32</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="17" t="s">
         <v>343</v>
       </c>
-      <c r="D35" s="15">
+      <c r="D35" s="18">
         <v>12019246416</v>
       </c>
-      <c r="E35" s="12" t="s">
+      <c r="E35" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="19" t="e">
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="13">
+      <c r="A36" s="11">
         <v>33</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="17" t="s">
         <v>345</v>
       </c>
-      <c r="D36" s="15">
+      <c r="D36" s="18">
         <v>12019246417</v>
       </c>
-      <c r="E36" s="12" t="s">
+      <c r="E36" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="19" t="e">
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="13">
+      <c r="A37" s="11">
         <v>34</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="D37" s="15">
+      <c r="D37" s="18">
         <v>12019246419</v>
       </c>
-      <c r="E37" s="12" t="s">
+      <c r="E37" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="19" t="e">
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -6795,7 +6984,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="D35" sqref="A1:J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -6803,903 +6992,903 @@
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="22.5545454545455" customWidth="1"/>
     <col min="3" max="3" width="16.7818181818182" customWidth="1"/>
-    <col min="4" max="4" width="21.5545454545455" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5545454545455" style="15" customWidth="1"/>
     <col min="5" max="5" width="25.1090909090909" customWidth="1"/>
     <col min="6" max="6" width="13.2181818181818" customWidth="1"/>
-    <col min="7" max="9" width="13.6636363636364" style="2" customWidth="1"/>
-    <col min="10" max="10" width="22.5545454545455" style="2" customWidth="1"/>
+    <col min="7" max="9" width="13.6636363636364" style="16" customWidth="1"/>
+    <col min="10" max="10" width="22.5545454545455" style="16" customWidth="1"/>
     <col min="21" max="21" width="14.4454545454545" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="9"/>
+      <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="13">
+      <c r="A4" s="11">
         <v>1</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="17" t="s">
         <v>350</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="18">
         <v>12019246354</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="17" t="e">
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="14" t="e">
         <f t="shared" ref="J4:J36" si="0">AVERAGE(F4:I4)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="13">
+      <c r="A5" s="11">
         <v>2</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="18">
         <v>12019246357</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="17" t="e">
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="14" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="13">
+      <c r="A6" s="11">
         <v>3</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="18">
         <v>12019246358</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="17" t="e">
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="14" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="13">
+      <c r="A7" s="11">
         <v>4</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="17" t="s">
         <v>356</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="18">
         <v>12019246360</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="17" t="e">
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="14" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="13">
+      <c r="A8" s="11">
         <v>5</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="18">
         <v>12019246363</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="17" t="e">
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="14" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="13">
+      <c r="A9" s="11">
         <v>6</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="17" t="s">
         <v>359</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="18">
         <v>12019246365</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="17" t="e">
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="14" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="13">
+      <c r="A10" s="11">
         <v>7</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="17" t="s">
         <v>361</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="18">
         <v>12019246366</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="17" t="e">
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="14" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="13">
+      <c r="A11" s="11">
         <v>8</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="17" t="s">
         <v>363</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="18">
         <v>12019246367</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="17" t="e">
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="14" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="13">
+      <c r="A12" s="11">
         <v>9</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="17" t="s">
         <v>365</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="18">
         <v>12019246369</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="17" t="e">
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="14" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="13">
+      <c r="A13" s="11">
         <v>10</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="17" t="s">
         <v>367</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="18">
         <v>12019246371</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="17" t="e">
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="14" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="13">
+      <c r="A14" s="11">
         <v>11</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="18">
         <v>12019246373</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="17" t="e">
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="14" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="13">
+      <c r="A15" s="11">
         <v>12</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="18">
         <v>12019246376</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="17" t="e">
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="14" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="13">
+      <c r="A16" s="11">
         <v>13</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="17" t="s">
         <v>372</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="18">
         <v>12019246377</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="17" t="e">
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="14" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="13">
+      <c r="A17" s="11">
         <v>14</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="17" t="s">
         <v>374</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="18">
         <v>12019246378</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="17" t="e">
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="14" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="13">
+      <c r="A18" s="11">
         <v>15</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="17" t="s">
         <v>376</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="18">
         <v>12019246379</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="17" t="e">
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="14" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="13">
+      <c r="A19" s="11">
         <v>16</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="17" t="s">
         <v>378</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="18">
         <v>12019246383</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="17" t="e">
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="14" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="13">
+      <c r="A20" s="11">
         <v>17</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="17" t="s">
         <v>380</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="18">
         <v>12019246385</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="17" t="e">
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="14" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="13">
+      <c r="A21" s="11">
         <v>18</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="17" t="s">
         <v>381</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="18">
         <v>12019246387</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="17" t="e">
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="14" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="13">
+      <c r="A22" s="11">
         <v>19</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="17" t="s">
         <v>383</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="18">
         <v>12019246389</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="17" t="e">
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="14" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="13">
+      <c r="A23" s="11">
         <v>20</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="17" t="s">
         <v>385</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="18">
         <v>12019246390</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="17" t="e">
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="14" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="13">
+      <c r="A24" s="11">
         <v>21</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="17" t="s">
         <v>387</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="18">
         <v>12019246393</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="17" t="e">
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="14" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="13">
+      <c r="A25" s="11">
         <v>22</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="17" t="s">
         <v>389</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D25" s="18">
         <v>12019246394</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="17" t="e">
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="14" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="13">
+      <c r="A26" s="11">
         <v>23</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="17" t="s">
         <v>391</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D26" s="18">
         <v>12019246396</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="17" t="e">
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="14" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="13">
+      <c r="A27" s="11">
         <v>24</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="17" t="s">
         <v>393</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D27" s="18">
         <v>12019246398</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="17" t="e">
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="14" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="13">
+      <c r="A28" s="11">
         <v>25</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="17" t="s">
         <v>395</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D28" s="18">
         <v>12019246400</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="17" t="e">
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="14" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="13">
+      <c r="A29" s="11">
         <v>26</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="17" t="s">
         <v>396</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D29" s="18">
         <v>12019246401</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="E29" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="17" t="e">
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="14" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="13">
+      <c r="A30" s="11">
         <v>27</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="17" t="s">
         <v>398</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D30" s="18">
         <v>12019246406</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="17" t="e">
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="14" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="13">
+      <c r="A31" s="11">
         <v>28</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="17" t="s">
         <v>400</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D31" s="18">
         <v>12019246408</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E31" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="17" t="e">
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="14" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="13">
+      <c r="A32" s="11">
         <v>29</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="17" t="s">
         <v>401</v>
       </c>
-      <c r="D32" s="15">
+      <c r="D32" s="18">
         <v>12019246409</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E32" s="10" t="s">
         <v>402</v>
       </c>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="17" t="e">
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="14" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="13">
+      <c r="A33" s="11">
         <v>30</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="17" t="s">
         <v>403</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D33" s="18">
         <v>12019246413</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="E33" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="17" t="e">
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="14" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="13">
+      <c r="A34" s="11">
         <v>31</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="17" t="s">
         <v>405</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D34" s="18">
         <v>12019246418</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="E34" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="17" t="e">
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="14" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="13">
+      <c r="A35" s="11">
         <v>32</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="17" t="s">
         <v>406</v>
       </c>
-      <c r="D35" s="15">
+      <c r="D35" s="18">
         <v>12019246420</v>
       </c>
-      <c r="E35" s="12" t="s">
+      <c r="E35" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="17" t="e">
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="14" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="13">
+      <c r="A36" s="11">
         <v>33</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="17" t="s">
         <v>407</v>
       </c>
-      <c r="D36" s="15">
+      <c r="D36" s="18">
         <v>12019246070</v>
       </c>
-      <c r="E36" s="12" t="s">
+      <c r="E36" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="17" t="e">
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="14" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -7730,4 +7919,619 @@
   <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
+  <cols>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="11.0909090909091" customWidth="1"/>
+    <col min="4" max="4" width="14"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="11">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" s="12">
+        <v>12016246281</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13">
+        <v>20</v>
+      </c>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="14">
+        <f t="shared" ref="J4:J36" si="0">AVERAGE(F4:I4)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="11">
+        <v>2</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="D5" s="12">
+        <v>12018246110</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13">
+        <v>30</v>
+      </c>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="14">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="11">
+        <v>3</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="D6" s="12">
+        <v>12018246121</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13">
+        <v>30</v>
+      </c>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="14">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="11">
+        <v>4</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="D7" s="12">
+        <v>12018246062</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13">
+        <v>40</v>
+      </c>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="14">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="11">
+        <v>5</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="D8" s="12">
+        <v>12018246076</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13">
+        <v>40</v>
+      </c>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="14">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="11">
+        <v>6</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="D9" s="12">
+        <v>12018246096</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13">
+        <v>40</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="14">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="11">
+        <v>7</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="D10" s="12">
+        <v>12018246120</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13">
+        <v>30</v>
+      </c>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="14">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="11">
+        <v>8</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="D11" s="12">
+        <v>12018246130</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13">
+        <v>40</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="14">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="11">
+        <v>9</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="D12" s="12">
+        <v>12018246139</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13">
+        <v>40</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="14">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="11">
+        <v>10</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="D13" s="12">
+        <v>12017246153</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13">
+        <v>20</v>
+      </c>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="14">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" ht="13" customHeight="1" spans="1:10">
+      <c r="A14" s="11">
+        <v>11</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="D14" s="12">
+        <v>12018246078</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="14" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="11">
+        <v>12</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="D15" s="12">
+        <v>12018246146</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13">
+        <v>30</v>
+      </c>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="14">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="11">
+        <v>13</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="D16" s="12">
+        <v>12018246155</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13">
+        <v>30</v>
+      </c>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="14">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="11">
+        <v>14</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="D17" s="12">
+        <v>12018246165</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13">
+        <v>40</v>
+      </c>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="14">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="11">
+        <v>15</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="D18" s="12">
+        <v>12018246114</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="14" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="11">
+        <v>16</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="D19" s="12">
+        <v>12018246237</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13">
+        <v>30</v>
+      </c>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="14">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="11">
+        <v>17</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="D20" s="12">
+        <v>12018246216</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13">
+        <v>30</v>
+      </c>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="14">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="11">
+        <v>18</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="D21" s="12">
+        <v>12018246224</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13">
+        <v>40</v>
+      </c>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="14">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="11">
+        <v>19</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="D22" s="12">
+        <v>12018246246</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13">
+        <v>30</v>
+      </c>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="14">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="J2:J3"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input Score" sqref="F4:I22"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:I2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:I3"/>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Grade 2019/Class Test/CT_Summary_ZW_2019.xlsx
+++ b/Grade 2019/Class Test/CT_Summary_ZW_2019.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="8250" activeTab="5"/>
+    <workbookView windowWidth="19200" windowHeight="8250" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CC1" sheetId="2" r:id="rId1"/>
@@ -1347,10 +1347,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
   <fonts count="26">
@@ -1397,23 +1397,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1428,6 +1421,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1435,7 +1435,68 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1457,20 +1518,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1480,52 +1527,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1533,9 +1534,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1592,7 +1592,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1604,25 +1700,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1640,103 +1730,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1798,30 +1798,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1832,17 +1808,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1862,6 +1827,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1877,11 +1851,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1894,16 +1874,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1912,136 +1912,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3648,8 +3648,8 @@
   <sheetPr/>
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="O18" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -3755,11 +3755,13 @@
       <c r="G4" s="19">
         <v>40</v>
       </c>
-      <c r="H4" s="19"/>
+      <c r="H4" s="19">
+        <v>80</v>
+      </c>
       <c r="I4" s="19"/>
       <c r="J4" s="20">
         <f t="shared" ref="J4:J40" si="0">AVERAGE(F4:I4)</f>
-        <v>53.3333333333333</v>
+        <v>62.2222222222222</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3784,11 +3786,13 @@
       <c r="G5" s="19">
         <v>40</v>
       </c>
-      <c r="H5" s="19"/>
+      <c r="H5" s="19">
+        <v>90</v>
+      </c>
       <c r="I5" s="19"/>
       <c r="J5" s="20">
         <f t="shared" si="0"/>
-        <v>53.3333333333333</v>
+        <v>65.5555555555556</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3813,11 +3817,13 @@
       <c r="G6" s="19">
         <v>40</v>
       </c>
-      <c r="H6" s="19"/>
+      <c r="H6" s="19">
+        <v>90</v>
+      </c>
       <c r="I6" s="19"/>
       <c r="J6" s="20">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>56.6666666666667</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3842,11 +3848,13 @@
       <c r="G7" s="19">
         <v>40</v>
       </c>
-      <c r="H7" s="19"/>
+      <c r="H7" s="19">
+        <v>90</v>
+      </c>
       <c r="I7" s="19"/>
       <c r="J7" s="20">
         <f t="shared" si="0"/>
-        <v>46.6666666666667</v>
+        <v>61.1111111111111</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -3871,11 +3879,13 @@
       <c r="G8" s="19">
         <v>60</v>
       </c>
-      <c r="H8" s="19"/>
+      <c r="H8" s="19">
+        <v>80</v>
+      </c>
       <c r="I8" s="19"/>
       <c r="J8" s="20">
         <f t="shared" si="0"/>
-        <v>46.6666666666667</v>
+        <v>57.7777777777778</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3900,11 +3910,13 @@
       <c r="G9" s="19">
         <v>50</v>
       </c>
-      <c r="H9" s="19"/>
+      <c r="H9" s="19">
+        <v>70</v>
+      </c>
       <c r="I9" s="19"/>
       <c r="J9" s="20">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>53.3333333333333</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -3929,11 +3941,13 @@
       <c r="G10" s="19">
         <v>40</v>
       </c>
-      <c r="H10" s="19"/>
+      <c r="H10" s="19">
+        <v>90</v>
+      </c>
       <c r="I10" s="19"/>
       <c r="J10" s="20">
         <f t="shared" si="0"/>
-        <v>43.3333333333333</v>
+        <v>58.8888888888889</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -3958,11 +3972,13 @@
       <c r="G11" s="19">
         <v>50</v>
       </c>
-      <c r="H11" s="19"/>
+      <c r="H11" s="19">
+        <v>80</v>
+      </c>
       <c r="I11" s="19"/>
       <c r="J11" s="20">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>63.3333333333333</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -3987,11 +4003,13 @@
       <c r="G12" s="19">
         <v>40</v>
       </c>
-      <c r="H12" s="19"/>
+      <c r="H12" s="19">
+        <v>70</v>
+      </c>
       <c r="I12" s="19"/>
       <c r="J12" s="20">
         <f t="shared" si="0"/>
-        <v>53.3333333333333</v>
+        <v>58.8888888888889</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -4016,11 +4034,13 @@
       <c r="G13" s="19">
         <v>40</v>
       </c>
-      <c r="H13" s="19"/>
+      <c r="H13" s="19">
+        <v>80</v>
+      </c>
       <c r="I13" s="19"/>
       <c r="J13" s="20">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>53.3333333333333</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -4045,11 +4065,13 @@
       <c r="G14" s="19">
         <v>50</v>
       </c>
-      <c r="H14" s="19"/>
+      <c r="H14" s="19">
+        <v>80</v>
+      </c>
       <c r="I14" s="19"/>
       <c r="J14" s="20">
         <f t="shared" si="0"/>
-        <v>58.3333333333333</v>
+        <v>65.5555555555556</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4074,11 +4096,13 @@
       <c r="G15" s="19">
         <v>70</v>
       </c>
-      <c r="H15" s="19"/>
+      <c r="H15" s="19">
+        <v>80</v>
+      </c>
       <c r="I15" s="19"/>
       <c r="J15" s="20">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>63.3333333333333</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -4103,11 +4127,13 @@
       <c r="G16" s="19">
         <v>30</v>
       </c>
-      <c r="H16" s="19"/>
+      <c r="H16" s="19">
+        <v>90</v>
+      </c>
       <c r="I16" s="19"/>
       <c r="J16" s="20">
         <f t="shared" si="0"/>
-        <v>38.3333333333333</v>
+        <v>55.5555555555556</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -4132,11 +4158,13 @@
       <c r="G17" s="19">
         <v>20</v>
       </c>
-      <c r="H17" s="19"/>
+      <c r="H17" s="19">
+        <v>60</v>
+      </c>
       <c r="I17" s="19"/>
       <c r="J17" s="20">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -4161,11 +4189,13 @@
       <c r="G18" s="19">
         <v>50</v>
       </c>
-      <c r="H18" s="19"/>
+      <c r="H18" s="19">
+        <v>90</v>
+      </c>
       <c r="I18" s="19"/>
       <c r="J18" s="20">
         <f t="shared" si="0"/>
-        <v>51.6666666666667</v>
+        <v>64.4444444444444</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -4190,11 +4220,13 @@
       <c r="G19" s="19">
         <v>50</v>
       </c>
-      <c r="H19" s="19"/>
+      <c r="H19" s="19">
+        <v>90</v>
+      </c>
       <c r="I19" s="19"/>
       <c r="J19" s="20">
         <f t="shared" si="0"/>
-        <v>58.3333333333333</v>
+        <v>68.8888888888889</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -4219,11 +4251,13 @@
       <c r="G20" s="19">
         <v>50</v>
       </c>
-      <c r="H20" s="19"/>
+      <c r="H20" s="19">
+        <v>80</v>
+      </c>
       <c r="I20" s="19"/>
       <c r="J20" s="20">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>56.6666666666667</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -4248,11 +4282,13 @@
       <c r="G21" s="19">
         <v>80</v>
       </c>
-      <c r="H21" s="19"/>
+      <c r="H21" s="19">
+        <v>30</v>
+      </c>
       <c r="I21" s="19"/>
       <c r="J21" s="20">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -4277,11 +4313,13 @@
       <c r="G22" s="19">
         <v>40</v>
       </c>
-      <c r="H22" s="19"/>
+      <c r="H22" s="19">
+        <v>30</v>
+      </c>
       <c r="I22" s="19"/>
       <c r="J22" s="20">
         <f t="shared" si="0"/>
-        <v>33.3333333333333</v>
+        <v>32.2222222222222</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -4306,11 +4344,13 @@
       <c r="G23" s="19">
         <v>10</v>
       </c>
-      <c r="H23" s="19"/>
+      <c r="H23" s="19">
+        <v>80</v>
+      </c>
       <c r="I23" s="19"/>
       <c r="J23" s="20">
         <f t="shared" si="0"/>
-        <v>38.3333333333333</v>
+        <v>52.2222222222222</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -4335,11 +4375,13 @@
       <c r="G24" s="19">
         <v>50</v>
       </c>
-      <c r="H24" s="19"/>
+      <c r="H24" s="19">
+        <v>60</v>
+      </c>
       <c r="I24" s="19"/>
       <c r="J24" s="20">
         <f t="shared" si="0"/>
-        <v>41.6666666666667</v>
+        <v>47.7777777777778</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -4364,11 +4406,13 @@
       <c r="G25" s="19">
         <v>50</v>
       </c>
-      <c r="H25" s="19"/>
+      <c r="H25" s="19">
+        <v>70</v>
+      </c>
       <c r="I25" s="19"/>
       <c r="J25" s="20">
         <f t="shared" si="0"/>
-        <v>41.6666666666667</v>
+        <v>51.1111111111111</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -4393,11 +4437,13 @@
       <c r="G26" s="19">
         <v>60</v>
       </c>
-      <c r="H26" s="19"/>
+      <c r="H26" s="19">
+        <v>70</v>
+      </c>
       <c r="I26" s="19"/>
       <c r="J26" s="20">
         <f t="shared" si="0"/>
-        <v>53.3333333333333</v>
+        <v>58.8888888888889</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -4422,11 +4468,13 @@
       <c r="G27" s="19">
         <v>50</v>
       </c>
-      <c r="H27" s="19"/>
+      <c r="H27" s="19">
+        <v>60</v>
+      </c>
       <c r="I27" s="19"/>
       <c r="J27" s="20">
         <f t="shared" si="0"/>
-        <v>41.6666666666667</v>
+        <v>47.7777777777778</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -4451,11 +4499,13 @@
       <c r="G28" s="19">
         <v>60</v>
       </c>
-      <c r="H28" s="19"/>
+      <c r="H28" s="19">
+        <v>80</v>
+      </c>
       <c r="I28" s="19"/>
       <c r="J28" s="20">
         <f t="shared" si="0"/>
-        <v>53.3333333333333</v>
+        <v>62.2222222222222</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -4480,11 +4530,13 @@
       <c r="G29" s="19">
         <v>40</v>
       </c>
-      <c r="H29" s="19"/>
+      <c r="H29" s="19">
+        <v>70</v>
+      </c>
       <c r="I29" s="19"/>
       <c r="J29" s="20">
         <f t="shared" si="0"/>
-        <v>53.3333333333333</v>
+        <v>58.8888888888889</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -4509,11 +4561,13 @@
       <c r="G30" s="19">
         <v>80</v>
       </c>
-      <c r="H30" s="19"/>
+      <c r="H30" s="19">
+        <v>90</v>
+      </c>
       <c r="I30" s="19"/>
       <c r="J30" s="20">
         <f t="shared" si="0"/>
-        <v>56.6666666666667</v>
+        <v>67.7777777777778</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -4538,11 +4592,13 @@
       <c r="G31" s="19">
         <v>30</v>
       </c>
-      <c r="H31" s="19"/>
+      <c r="H31" s="19">
+        <v>50</v>
+      </c>
       <c r="I31" s="19"/>
       <c r="J31" s="20">
         <f t="shared" si="0"/>
-        <v>31.6666666666667</v>
+        <v>37.7777777777778</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -4567,11 +4623,13 @@
       <c r="G32" s="19">
         <v>60</v>
       </c>
-      <c r="H32" s="19"/>
+      <c r="H32" s="19">
+        <v>90</v>
+      </c>
       <c r="I32" s="19"/>
       <c r="J32" s="20">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -4596,11 +4654,13 @@
       <c r="G33" s="19">
         <v>50</v>
       </c>
-      <c r="H33" s="19"/>
+      <c r="H33" s="19">
+        <v>70</v>
+      </c>
       <c r="I33" s="19"/>
       <c r="J33" s="20">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>53.3333333333333</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -4625,11 +4685,13 @@
       <c r="G34" s="19">
         <v>60</v>
       </c>
-      <c r="H34" s="19"/>
+      <c r="H34" s="19">
+        <v>90</v>
+      </c>
       <c r="I34" s="19"/>
       <c r="J34" s="20">
         <f t="shared" si="0"/>
-        <v>63.3333333333333</v>
+        <v>72.2222222222222</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -4654,11 +4716,13 @@
       <c r="G35" s="19">
         <v>50</v>
       </c>
-      <c r="H35" s="19"/>
+      <c r="H35" s="19">
+        <v>60</v>
+      </c>
       <c r="I35" s="19"/>
       <c r="J35" s="20">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -4683,11 +4747,13 @@
       <c r="G36" s="19">
         <v>80</v>
       </c>
-      <c r="H36" s="19"/>
+      <c r="H36" s="19">
+        <v>90</v>
+      </c>
       <c r="I36" s="19"/>
       <c r="J36" s="20">
         <f t="shared" si="0"/>
-        <v>63.3333333333333</v>
+        <v>72.2222222222222</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -4712,11 +4778,13 @@
       <c r="G37" s="19">
         <v>30</v>
       </c>
-      <c r="H37" s="19"/>
+      <c r="H37" s="19">
+        <v>80</v>
+      </c>
       <c r="I37" s="19"/>
       <c r="J37" s="20">
         <f t="shared" si="0"/>
-        <v>31.6666666666667</v>
+        <v>47.7777777777778</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -4741,11 +4809,13 @@
       <c r="G38" s="19">
         <v>40</v>
       </c>
-      <c r="H38" s="19"/>
+      <c r="H38" s="19">
+        <v>60</v>
+      </c>
       <c r="I38" s="19"/>
       <c r="J38" s="20">
         <f t="shared" si="0"/>
-        <v>36.6666666666667</v>
+        <v>44.4444444444444</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -4770,11 +4840,13 @@
       <c r="G39" s="19">
         <v>50</v>
       </c>
-      <c r="H39" s="19"/>
+      <c r="H39" s="19">
+        <v>90</v>
+      </c>
       <c r="I39" s="19"/>
       <c r="J39" s="20">
         <f t="shared" si="0"/>
-        <v>51.6666666666667</v>
+        <v>64.4444444444444</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -4799,11 +4871,13 @@
       <c r="G40" s="19">
         <v>50</v>
       </c>
-      <c r="H40" s="19"/>
+      <c r="H40" s="19">
+        <v>40</v>
+      </c>
       <c r="I40" s="19"/>
       <c r="J40" s="20">
         <f t="shared" si="0"/>
-        <v>38.3333333333333</v>
+        <v>38.8888888888889</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -4828,11 +4902,13 @@
       <c r="G41" s="19">
         <v>10</v>
       </c>
-      <c r="H41" s="19"/>
+      <c r="H41" s="19">
+        <v>80</v>
+      </c>
       <c r="I41" s="19"/>
       <c r="J41" s="20">
         <f t="shared" ref="J41:J42" si="1">AVERAGE(F41:I41)</f>
-        <v>15</v>
+        <v>36.6666666666667</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -4857,11 +4933,13 @@
       <c r="G42" s="19">
         <v>30</v>
       </c>
-      <c r="H42" s="19"/>
+      <c r="H42" s="19">
+        <v>60</v>
+      </c>
       <c r="I42" s="19"/>
       <c r="J42" s="20">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -7926,8 +8004,8 @@
   <sheetPr/>
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -8026,11 +8104,13 @@
       <c r="G4" s="13">
         <v>20</v>
       </c>
-      <c r="H4" s="13"/>
+      <c r="H4" s="13">
+        <v>100</v>
+      </c>
       <c r="I4" s="13"/>
       <c r="J4" s="14">
         <f t="shared" ref="J4:J36" si="0">AVERAGE(F4:I4)</f>
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -8053,11 +8133,13 @@
       <c r="G5" s="13">
         <v>30</v>
       </c>
-      <c r="H5" s="13"/>
+      <c r="H5" s="13">
+        <v>100</v>
+      </c>
       <c r="I5" s="13"/>
       <c r="J5" s="14">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -8080,11 +8162,13 @@
       <c r="G6" s="13">
         <v>30</v>
       </c>
-      <c r="H6" s="13"/>
+      <c r="H6" s="13">
+        <v>80</v>
+      </c>
       <c r="I6" s="13"/>
       <c r="J6" s="14">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -8107,11 +8191,13 @@
       <c r="G7" s="13">
         <v>40</v>
       </c>
-      <c r="H7" s="13"/>
+      <c r="H7" s="13">
+        <v>100</v>
+      </c>
       <c r="I7" s="13"/>
       <c r="J7" s="14">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -8134,11 +8220,13 @@
       <c r="G8" s="13">
         <v>40</v>
       </c>
-      <c r="H8" s="13"/>
+      <c r="H8" s="13">
+        <v>60</v>
+      </c>
       <c r="I8" s="13"/>
       <c r="J8" s="14">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -8161,11 +8249,13 @@
       <c r="G9" s="13">
         <v>40</v>
       </c>
-      <c r="H9" s="13"/>
+      <c r="H9" s="13">
+        <v>90</v>
+      </c>
       <c r="I9" s="13"/>
       <c r="J9" s="14">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -8188,11 +8278,13 @@
       <c r="G10" s="13">
         <v>30</v>
       </c>
-      <c r="H10" s="13"/>
+      <c r="H10" s="13">
+        <v>100</v>
+      </c>
       <c r="I10" s="13"/>
       <c r="J10" s="14">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -8215,11 +8307,13 @@
       <c r="G11" s="13">
         <v>40</v>
       </c>
-      <c r="H11" s="13"/>
+      <c r="H11" s="13">
+        <v>90</v>
+      </c>
       <c r="I11" s="13"/>
       <c r="J11" s="14">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -8242,11 +8336,13 @@
       <c r="G12" s="13">
         <v>40</v>
       </c>
-      <c r="H12" s="13"/>
+      <c r="H12" s="13">
+        <v>60</v>
+      </c>
       <c r="I12" s="13"/>
       <c r="J12" s="14">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -8269,11 +8365,13 @@
       <c r="G13" s="13">
         <v>20</v>
       </c>
-      <c r="H13" s="13"/>
+      <c r="H13" s="13">
+        <v>100</v>
+      </c>
       <c r="I13" s="13"/>
       <c r="J13" s="14">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" ht="13" customHeight="1" spans="1:10">
@@ -8321,11 +8419,13 @@
       <c r="G15" s="13">
         <v>30</v>
       </c>
-      <c r="H15" s="13"/>
+      <c r="H15" s="13">
+        <v>70</v>
+      </c>
       <c r="I15" s="13"/>
       <c r="J15" s="14">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -8348,11 +8448,13 @@
       <c r="G16" s="13">
         <v>30</v>
       </c>
-      <c r="H16" s="13"/>
+      <c r="H16" s="13">
+        <v>100</v>
+      </c>
       <c r="I16" s="13"/>
       <c r="J16" s="14">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -8375,11 +8477,13 @@
       <c r="G17" s="13">
         <v>40</v>
       </c>
-      <c r="H17" s="13"/>
+      <c r="H17" s="13">
+        <v>100</v>
+      </c>
       <c r="I17" s="13"/>
       <c r="J17" s="14">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -8427,11 +8531,13 @@
       <c r="G19" s="13">
         <v>30</v>
       </c>
-      <c r="H19" s="13"/>
+      <c r="H19" s="13">
+        <v>100</v>
+      </c>
       <c r="I19" s="13"/>
       <c r="J19" s="14">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -8454,11 +8560,13 @@
       <c r="G20" s="13">
         <v>30</v>
       </c>
-      <c r="H20" s="13"/>
+      <c r="H20" s="13">
+        <v>80</v>
+      </c>
       <c r="I20" s="13"/>
       <c r="J20" s="14">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -8481,11 +8589,13 @@
       <c r="G21" s="13">
         <v>40</v>
       </c>
-      <c r="H21" s="13"/>
+      <c r="H21" s="13">
+        <v>80</v>
+      </c>
       <c r="I21" s="13"/>
       <c r="J21" s="14">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -8508,11 +8618,13 @@
       <c r="G22" s="13">
         <v>30</v>
       </c>
-      <c r="H22" s="13"/>
+      <c r="H22" s="13">
+        <v>80</v>
+      </c>
       <c r="I22" s="13"/>
       <c r="J22" s="14">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -8527,7 +8639,7 @@
     <mergeCell ref="J2:J3"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input Score" sqref="F4:I22"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input Score" sqref="F14:G14 H14 I14 F18:G18 H18 I18 F4:I13 F15:I17 F19:I22"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:I2"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:I3"/>
   </dataValidations>
